--- a/.docs/backlog.xlsx
+++ b/.docs/backlog.xlsx
@@ -1,22 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21001"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19126"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Apps\doweb\.docs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Apps\doweb2\.docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{550A23CE-2406-4A48-8F3E-622A9A43AF8F}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{959F193D-1691-4404-B92A-FC6A1E7809F5}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9060" xr2:uid="{CF0B0C50-87FC-49A8-9022-24752B9AFE18}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9060" activeTab="1" xr2:uid="{CF0B0C50-87FC-49A8-9022-24752B9AFE18}"/>
   </bookViews>
   <sheets>
-    <sheet name="Backlog" sheetId="1" r:id="rId1"/>
+    <sheet name="Pair" sheetId="2" r:id="rId1"/>
+    <sheet name="Features" sheetId="3" r:id="rId2"/>
+    <sheet name="Data" sheetId="4" r:id="rId3"/>
+    <sheet name="Backlog" sheetId="1" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Titles" localSheetId="0">Backlog!$1:$1</definedName>
+    <definedName name="_xlnm.Print_Titles" localSheetId="3">Backlog!$1:$1</definedName>
+    <definedName name="_xlnm.Print_Titles" localSheetId="0">Pair!$1:$1</definedName>
   </definedNames>
   <calcPr calcId="179017"/>
   <extLst>
@@ -28,6 +32,40 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>Vivek Pillai</author>
+  </authors>
+  <commentList>
+    <comment ref="J1" authorId="0" shapeId="0" xr:uid="{E1410D2D-8C75-43F9-B496-E0E22DB5E8D0}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Vivek Pillai:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Integration test cases across user stories are defined at the terminating user stories</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Vivek Pillai</author>
@@ -62,7 +100,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="430" uniqueCount="267">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="967" uniqueCount="332">
   <si>
     <t>Feature</t>
   </si>
@@ -957,12 +995,207 @@
   <si>
     <t>LA008-01: should render SignIn</t>
   </si>
+  <si>
+    <t>#</t>
+  </si>
+  <si>
+    <t>Module</t>
+  </si>
+  <si>
+    <t>Goals</t>
+  </si>
+  <si>
+    <t>Area</t>
+  </si>
+  <si>
+    <t>Recruitment</t>
+  </si>
+  <si>
+    <t>Onboarding</t>
+  </si>
+  <si>
+    <t>Development</t>
+  </si>
+  <si>
+    <t>Performance</t>
+  </si>
+  <si>
+    <t>Succession</t>
+  </si>
+  <si>
+    <t>New Areas</t>
+  </si>
+  <si>
+    <t>Effectiveness</t>
+  </si>
+  <si>
+    <t>New Areas, Backup - Another focus</t>
+  </si>
+  <si>
+    <t>Compensation</t>
+  </si>
+  <si>
+    <t>Notes</t>
+  </si>
+  <si>
+    <t>Customer</t>
+  </si>
+  <si>
+    <t>Personal Effectiveness</t>
+  </si>
+  <si>
+    <t>Core value</t>
+  </si>
+  <si>
+    <t>Competencies</t>
+  </si>
+  <si>
+    <t>Think strategically</t>
+  </si>
+  <si>
+    <t>Innovate</t>
+  </si>
+  <si>
+    <t>Champion change</t>
+  </si>
+  <si>
+    <t>Improve systems and processes</t>
+  </si>
+  <si>
+    <t>Commit to quality</t>
+  </si>
+  <si>
+    <t>Focus on customer needs</t>
+  </si>
+  <si>
+    <t>Lead courageously</t>
+  </si>
+  <si>
+    <t>Foster open communication</t>
+  </si>
+  <si>
+    <t>Act with integrity</t>
+  </si>
+  <si>
+    <t>Establish plans</t>
+  </si>
+  <si>
+    <t>Manage execution</t>
+  </si>
+  <si>
+    <t>Influence others</t>
+  </si>
+  <si>
+    <t>Drive for results</t>
+  </si>
+  <si>
+    <t>Foster enthusiasm and teamwork</t>
+  </si>
+  <si>
+    <t>Reward and celebrate teamwork</t>
+  </si>
+  <si>
+    <t>Attract and develop talent</t>
+  </si>
+  <si>
+    <t>Build relationships</t>
+  </si>
+  <si>
+    <t>Use sound judgment</t>
+  </si>
+  <si>
+    <t>Convey information</t>
+  </si>
+  <si>
+    <t>Adapt and develop oneself</t>
+  </si>
+  <si>
+    <t>Know the organization and the business</t>
+  </si>
+  <si>
+    <t>Leadership</t>
+  </si>
+  <si>
+    <t>Industry</t>
+  </si>
+  <si>
+    <t>Client focus</t>
+  </si>
+  <si>
+    <t>Global perspective</t>
+  </si>
+  <si>
+    <t>Industry knowledge</t>
+  </si>
+  <si>
+    <t>Implementation</t>
+  </si>
+  <si>
+    <t>Competency area</t>
+  </si>
+  <si>
+    <t>Flexibility &amp; adaptibility</t>
+  </si>
+  <si>
+    <t>Communication skills</t>
+  </si>
+  <si>
+    <t>Results orientation</t>
+  </si>
+  <si>
+    <t>Innovation &amp; Strategic ability</t>
+  </si>
+  <si>
+    <t>Integrity &amp; trust</t>
+  </si>
+  <si>
+    <t>People &amp; developing subordinates</t>
+  </si>
+  <si>
+    <t>Preemptively apply for jobs</t>
+  </si>
+  <si>
+    <t>Video Profile &amp; video Q&amp;As</t>
+  </si>
+  <si>
+    <t>Generic job application profile</t>
+  </si>
+  <si>
+    <t>Company specific job application profile</t>
+  </si>
+  <si>
+    <t>Create profile of experience - Skills, testimonials, GitHub projects, Scores, customer verified feedback</t>
+  </si>
+  <si>
+    <t>Company asks, must haves, preferences for preemptive application including interview questionnaire &amp; interview stats</t>
+  </si>
+  <si>
+    <t>Opt for pre-verified pool of participants</t>
+  </si>
+  <si>
+    <t>Third party screening</t>
+  </si>
+  <si>
+    <t>Third party provider - reputation management</t>
+  </si>
+  <si>
+    <t>Prospective employees run background check on themselves - transparentme</t>
+  </si>
+  <si>
+    <t>Proofsheet concept - Verify claims from supervisors and customers</t>
+  </si>
+  <si>
+    <t>Acertiv - external certification</t>
+  </si>
+  <si>
+    <t>Trend is your friend - until the end when it bends</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -993,6 +1226,14 @@
       <color indexed="81"/>
       <name val="Tahoma"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="3">
@@ -1116,7 +1357,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1169,6 +1410,16 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1482,33 +1733,2173 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{13659273-BF96-4958-95F8-F1019C6D33FA}">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:L53"/>
+  <sheetViews>
+    <sheetView zoomScale="92" zoomScaleNormal="92" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D6" sqref="D6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75"/>
+  <cols>
+    <col min="1" max="1" width="6.28515625" style="9" customWidth="1"/>
+    <col min="2" max="2" width="6.7109375" style="9" customWidth="1"/>
+    <col min="3" max="3" width="8.85546875" style="9"/>
+    <col min="4" max="4" width="17.7109375" style="10" customWidth="1"/>
+    <col min="5" max="5" width="20.85546875" style="10" customWidth="1"/>
+    <col min="6" max="6" width="12.28515625" style="9" customWidth="1"/>
+    <col min="7" max="7" width="16.42578125" style="9" customWidth="1"/>
+    <col min="8" max="8" width="38.28515625" style="9" customWidth="1"/>
+    <col min="9" max="9" width="54.28515625" style="9" customWidth="1"/>
+    <col min="10" max="10" width="56.85546875" style="9" customWidth="1"/>
+    <col min="11" max="16384" width="8.85546875" style="9"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" s="4" customFormat="1" ht="25.5">
+      <c r="A1" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>242</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>243</v>
+      </c>
+      <c r="K1" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="L1" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" ht="153">
+      <c r="A2" s="5" t="s">
+        <v>227</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="E2" s="8" t="s">
+        <v>254</v>
+      </c>
+      <c r="F2" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="G2" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="H2" s="8" t="s">
+        <v>129</v>
+      </c>
+      <c r="I2" s="8" t="s">
+        <v>259</v>
+      </c>
+      <c r="J2" s="8" t="s">
+        <v>260</v>
+      </c>
+      <c r="K2" s="8"/>
+      <c r="L2" s="8"/>
+    </row>
+    <row r="3" spans="1:12" ht="127.5">
+      <c r="A3" s="5" t="s">
+        <v>228</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D3" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="E3" s="8" t="s">
+        <v>255</v>
+      </c>
+      <c r="F3" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="G3" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="H3" s="8" t="s">
+        <v>128</v>
+      </c>
+      <c r="I3" s="8" t="s">
+        <v>245</v>
+      </c>
+      <c r="J3" s="8" t="s">
+        <v>247</v>
+      </c>
+      <c r="K3" s="8"/>
+      <c r="L3" s="8"/>
+    </row>
+    <row r="4" spans="1:12" ht="140.25">
+      <c r="A4" s="5" t="s">
+        <v>229</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D4" s="7" t="s">
+        <v>263</v>
+      </c>
+      <c r="E4" s="8" t="s">
+        <v>134</v>
+      </c>
+      <c r="F4" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="G4" s="8" t="s">
+        <v>256</v>
+      </c>
+      <c r="H4" s="8" t="s">
+        <v>257</v>
+      </c>
+      <c r="I4" s="8" t="s">
+        <v>261</v>
+      </c>
+      <c r="J4" s="8" t="s">
+        <v>258</v>
+      </c>
+      <c r="K4" s="8"/>
+      <c r="L4" s="8"/>
+    </row>
+    <row r="5" spans="1:12" ht="76.5">
+      <c r="A5" s="5" t="s">
+        <v>230</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D5" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="E5" s="8" t="s">
+        <v>138</v>
+      </c>
+      <c r="F5" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="G5" s="8" t="s">
+        <v>137</v>
+      </c>
+      <c r="H5" s="8" t="s">
+        <v>130</v>
+      </c>
+      <c r="I5" s="8" t="s">
+        <v>246</v>
+      </c>
+      <c r="J5" s="8" t="s">
+        <v>248</v>
+      </c>
+      <c r="K5" s="8"/>
+      <c r="L5" s="8"/>
+    </row>
+    <row r="6" spans="1:12" ht="25.5">
+      <c r="A6" s="5" t="s">
+        <v>231</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="C6" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D6" s="7" t="s">
+        <v>262</v>
+      </c>
+      <c r="E6" s="8" t="s">
+        <v>139</v>
+      </c>
+      <c r="F6" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="G6" s="8" t="s">
+        <v>264</v>
+      </c>
+      <c r="H6" s="8" t="s">
+        <v>265</v>
+      </c>
+      <c r="I6" s="8"/>
+      <c r="J6" s="8"/>
+      <c r="K6" s="8"/>
+      <c r="L6" s="8"/>
+    </row>
+    <row r="7" spans="1:12" ht="51">
+      <c r="A7" s="5" t="s">
+        <v>232</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="C7" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D7" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="E7" s="8" t="s">
+        <v>135</v>
+      </c>
+      <c r="F7" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="G7" s="8" t="s">
+        <v>136</v>
+      </c>
+      <c r="H7" s="8" t="s">
+        <v>131</v>
+      </c>
+      <c r="I7" s="8"/>
+      <c r="J7" s="8"/>
+      <c r="K7" s="8"/>
+      <c r="L7" s="8"/>
+    </row>
+    <row r="8" spans="1:12" ht="51">
+      <c r="A8" s="5" t="s">
+        <v>233</v>
+      </c>
+      <c r="B8" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="C8" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D8" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="E8" s="8" t="s">
+        <v>133</v>
+      </c>
+      <c r="F8" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="G8" s="8" t="s">
+        <v>132</v>
+      </c>
+      <c r="H8" s="8" t="s">
+        <v>140</v>
+      </c>
+      <c r="I8" s="8"/>
+      <c r="J8" s="8"/>
+      <c r="K8" s="8"/>
+      <c r="L8" s="8"/>
+    </row>
+    <row r="9" spans="1:12" ht="153">
+      <c r="A9" s="5" t="s">
+        <v>234</v>
+      </c>
+      <c r="B9" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="C9" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D9" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="E9" s="8" t="s">
+        <v>88</v>
+      </c>
+      <c r="F9" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="G9" s="8" t="s">
+        <v>121</v>
+      </c>
+      <c r="H9" s="8" t="s">
+        <v>186</v>
+      </c>
+      <c r="I9" s="8" t="s">
+        <v>266</v>
+      </c>
+      <c r="J9" s="8"/>
+      <c r="K9" s="8"/>
+      <c r="L9" s="8"/>
+    </row>
+    <row r="10" spans="1:12" ht="51">
+      <c r="A10" s="5" t="s">
+        <v>235</v>
+      </c>
+      <c r="B10" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="C10" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D10" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="E10" s="8" t="s">
+        <v>122</v>
+      </c>
+      <c r="F10" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="G10" s="8" t="s">
+        <v>141</v>
+      </c>
+      <c r="H10" s="8" t="s">
+        <v>187</v>
+      </c>
+      <c r="I10" s="8"/>
+      <c r="J10" s="8"/>
+      <c r="K10" s="8"/>
+      <c r="L10" s="8"/>
+    </row>
+    <row r="11" spans="1:12" ht="89.25">
+      <c r="A11" s="5" t="s">
+        <v>236</v>
+      </c>
+      <c r="B11" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="C11" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D11" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="E11" s="8" t="s">
+        <v>123</v>
+      </c>
+      <c r="F11" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="G11" s="8" t="s">
+        <v>124</v>
+      </c>
+      <c r="H11" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="I11" s="8"/>
+      <c r="J11" s="8"/>
+      <c r="K11" s="8"/>
+      <c r="L11" s="8"/>
+    </row>
+    <row r="12" spans="1:12" ht="76.5">
+      <c r="A12" s="5" t="s">
+        <v>190</v>
+      </c>
+      <c r="B12" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="C12" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="D12" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="E12" s="8" t="s">
+        <v>125</v>
+      </c>
+      <c r="F12" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="G12" s="8" t="s">
+        <v>126</v>
+      </c>
+      <c r="H12" s="8" t="s">
+        <v>178</v>
+      </c>
+      <c r="I12" s="8"/>
+      <c r="J12" s="8"/>
+      <c r="K12" s="8"/>
+      <c r="L12" s="8"/>
+    </row>
+    <row r="13" spans="1:12" ht="127.5">
+      <c r="A13" s="5" t="s">
+        <v>191</v>
+      </c>
+      <c r="B13" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="C13" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D13" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="E13" s="8" t="s">
+        <v>127</v>
+      </c>
+      <c r="F13" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="G13" s="8" t="s">
+        <v>118</v>
+      </c>
+      <c r="H13" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="I13" s="8"/>
+      <c r="J13" s="8"/>
+      <c r="K13" s="8"/>
+      <c r="L13" s="8"/>
+    </row>
+    <row r="14" spans="1:12" ht="51">
+      <c r="A14" s="5" t="s">
+        <v>192</v>
+      </c>
+      <c r="B14" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C14" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D14" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="E14" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="F14" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="G14" s="8" t="s">
+        <v>142</v>
+      </c>
+      <c r="H14" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="I14" s="8"/>
+      <c r="J14" s="8"/>
+      <c r="K14" s="8"/>
+      <c r="L14" s="8"/>
+    </row>
+    <row r="15" spans="1:12" ht="25.5">
+      <c r="A15" s="5" t="s">
+        <v>193</v>
+      </c>
+      <c r="B15" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C15" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="D15" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="E15" s="8" t="s">
+        <v>91</v>
+      </c>
+      <c r="F15" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="G15" s="8" t="s">
+        <v>143</v>
+      </c>
+      <c r="H15" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="I15" s="8"/>
+      <c r="J15" s="8"/>
+      <c r="K15" s="8"/>
+      <c r="L15" s="8"/>
+    </row>
+    <row r="16" spans="1:12" ht="63.75">
+      <c r="A16" s="5" t="s">
+        <v>194</v>
+      </c>
+      <c r="B16" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C16" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D16" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="E16" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="F16" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="G16" s="8" t="s">
+        <v>144</v>
+      </c>
+      <c r="H16" s="8" t="s">
+        <v>188</v>
+      </c>
+      <c r="I16" s="8"/>
+      <c r="J16" s="8"/>
+      <c r="K16" s="8"/>
+      <c r="L16" s="8"/>
+    </row>
+    <row r="17" spans="1:12" ht="51">
+      <c r="A17" s="5" t="s">
+        <v>195</v>
+      </c>
+      <c r="B17" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C17" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="D17" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="E17" s="8" t="s">
+        <v>92</v>
+      </c>
+      <c r="F17" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="G17" s="8" t="s">
+        <v>145</v>
+      </c>
+      <c r="H17" s="8" t="s">
+        <v>179</v>
+      </c>
+      <c r="I17" s="8"/>
+      <c r="J17" s="8"/>
+      <c r="K17" s="8"/>
+      <c r="L17" s="8"/>
+    </row>
+    <row r="18" spans="1:12">
+      <c r="A18" s="5" t="s">
+        <v>196</v>
+      </c>
+      <c r="B18" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C18" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="D18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="E18" s="8" t="s">
+        <v>89</v>
+      </c>
+      <c r="F18" s="8"/>
+      <c r="G18" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="H18" s="8"/>
+      <c r="I18" s="8"/>
+      <c r="J18" s="8"/>
+      <c r="K18" s="8"/>
+      <c r="L18" s="8"/>
+    </row>
+    <row r="19" spans="1:12" ht="25.5">
+      <c r="A19" s="5" t="s">
+        <v>197</v>
+      </c>
+      <c r="B19" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C19" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="D19" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="E19" s="8" t="s">
+        <v>89</v>
+      </c>
+      <c r="F19" s="8"/>
+      <c r="G19" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="H19" s="8"/>
+      <c r="I19" s="13"/>
+      <c r="J19" s="8"/>
+      <c r="K19" s="8"/>
+      <c r="L19" s="8"/>
+    </row>
+    <row r="20" spans="1:12" ht="178.5">
+      <c r="A20" s="5" t="s">
+        <v>198</v>
+      </c>
+      <c r="B20" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="C20" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D20" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="E20" s="8" t="s">
+        <v>93</v>
+      </c>
+      <c r="F20" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="G20" s="8" t="s">
+        <v>153</v>
+      </c>
+      <c r="H20" s="11"/>
+      <c r="I20" s="15" t="s">
+        <v>249</v>
+      </c>
+      <c r="J20" s="12"/>
+      <c r="K20" s="8"/>
+      <c r="L20" s="8"/>
+    </row>
+    <row r="21" spans="1:12" ht="38.25">
+      <c r="A21" s="5" t="s">
+        <v>237</v>
+      </c>
+      <c r="B21" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="C21" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D21" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="E21" s="8" t="s">
+        <v>94</v>
+      </c>
+      <c r="F21" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="G21" s="8" t="s">
+        <v>146</v>
+      </c>
+      <c r="H21" s="11"/>
+      <c r="I21" s="16" t="s">
+        <v>250</v>
+      </c>
+      <c r="J21" s="12"/>
+      <c r="K21" s="8"/>
+      <c r="L21" s="8"/>
+    </row>
+    <row r="22" spans="1:12" ht="63.75">
+      <c r="A22" s="5" t="s">
+        <v>199</v>
+      </c>
+      <c r="B22" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="C22" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D22" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="E22" s="8" t="s">
+        <v>94</v>
+      </c>
+      <c r="F22" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="G22" s="8" t="s">
+        <v>147</v>
+      </c>
+      <c r="H22" s="11"/>
+      <c r="I22" s="17" t="s">
+        <v>251</v>
+      </c>
+      <c r="J22" s="12"/>
+      <c r="K22" s="8"/>
+      <c r="L22" s="8"/>
+    </row>
+    <row r="23" spans="1:12" ht="51">
+      <c r="A23" s="5" t="s">
+        <v>200</v>
+      </c>
+      <c r="B23" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="C23" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D23" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="E23" s="8" t="s">
+        <v>95</v>
+      </c>
+      <c r="F23" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="G23" s="8" t="s">
+        <v>148</v>
+      </c>
+      <c r="H23" s="8"/>
+      <c r="I23" s="14" t="s">
+        <v>253</v>
+      </c>
+      <c r="J23" s="8"/>
+      <c r="K23" s="8"/>
+      <c r="L23" s="8"/>
+    </row>
+    <row r="24" spans="1:12" ht="63.75">
+      <c r="A24" s="5" t="s">
+        <v>201</v>
+      </c>
+      <c r="B24" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="C24" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D24" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="E24" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="F24" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="G24" s="8" t="s">
+        <v>149</v>
+      </c>
+      <c r="H24" s="8"/>
+      <c r="I24" s="8" t="s">
+        <v>252</v>
+      </c>
+      <c r="J24" s="8"/>
+      <c r="K24" s="8"/>
+      <c r="L24" s="8"/>
+    </row>
+    <row r="25" spans="1:12" ht="102">
+      <c r="A25" s="5" t="s">
+        <v>202</v>
+      </c>
+      <c r="B25" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="C25" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D25" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="E25" s="8" t="s">
+        <v>96</v>
+      </c>
+      <c r="F25" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="G25" s="8" t="s">
+        <v>154</v>
+      </c>
+      <c r="H25" s="8" t="s">
+        <v>180</v>
+      </c>
+      <c r="I25" s="8"/>
+      <c r="J25" s="8"/>
+      <c r="K25" s="8"/>
+      <c r="L25" s="8"/>
+    </row>
+    <row r="26" spans="1:12" ht="127.5">
+      <c r="A26" s="5" t="s">
+        <v>203</v>
+      </c>
+      <c r="B26" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C26" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D26" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="E26" s="8" t="s">
+        <v>89</v>
+      </c>
+      <c r="F26" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="G26" s="8" t="s">
+        <v>162</v>
+      </c>
+      <c r="H26" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="I26" s="8"/>
+      <c r="J26" s="8"/>
+      <c r="K26" s="8"/>
+      <c r="L26" s="8"/>
+    </row>
+    <row r="27" spans="1:12" ht="216.75">
+      <c r="A27" s="5" t="s">
+        <v>204</v>
+      </c>
+      <c r="B27" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="C27" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D27" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="E27" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="F27" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="G27" s="8" t="s">
+        <v>150</v>
+      </c>
+      <c r="H27" s="8" t="s">
+        <v>189</v>
+      </c>
+      <c r="I27" s="8"/>
+      <c r="J27" s="8"/>
+      <c r="K27" s="8"/>
+      <c r="L27" s="8"/>
+    </row>
+    <row r="28" spans="1:12" ht="63.75">
+      <c r="A28" s="5" t="s">
+        <v>205</v>
+      </c>
+      <c r="B28" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="C28" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D28" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="E28" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="F28" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="G28" s="8" t="s">
+        <v>155</v>
+      </c>
+      <c r="H28" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="I28" s="8"/>
+      <c r="J28" s="8"/>
+      <c r="K28" s="8"/>
+      <c r="L28" s="8"/>
+    </row>
+    <row r="29" spans="1:12" ht="63.75">
+      <c r="A29" s="5" t="s">
+        <v>206</v>
+      </c>
+      <c r="B29" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="C29" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D29" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="E29" s="8" t="s">
+        <v>89</v>
+      </c>
+      <c r="F29" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="G29" s="8" t="s">
+        <v>119</v>
+      </c>
+      <c r="H29" s="8"/>
+      <c r="I29" s="8"/>
+      <c r="J29" s="8"/>
+      <c r="K29" s="8"/>
+      <c r="L29" s="8"/>
+    </row>
+    <row r="30" spans="1:12" ht="76.5">
+      <c r="A30" s="5" t="s">
+        <v>207</v>
+      </c>
+      <c r="B30" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="C30" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D30" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="E30" s="8" t="s">
+        <v>89</v>
+      </c>
+      <c r="F30" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="G30" s="8" t="s">
+        <v>120</v>
+      </c>
+      <c r="H30" s="8"/>
+      <c r="I30" s="8"/>
+      <c r="J30" s="8"/>
+      <c r="K30" s="8"/>
+      <c r="L30" s="8"/>
+    </row>
+    <row r="31" spans="1:12" ht="63.75">
+      <c r="A31" s="5" t="s">
+        <v>238</v>
+      </c>
+      <c r="B31" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="C31" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D31" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="E31" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="F31" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="G31" s="8" t="s">
+        <v>151</v>
+      </c>
+      <c r="H31" s="8"/>
+      <c r="I31" s="8"/>
+      <c r="J31" s="8"/>
+      <c r="K31" s="8"/>
+      <c r="L31" s="8"/>
+    </row>
+    <row r="32" spans="1:12" ht="63.75">
+      <c r="A32" s="5" t="s">
+        <v>208</v>
+      </c>
+      <c r="B32" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="C32" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D32" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="E32" s="8" t="s">
+        <v>97</v>
+      </c>
+      <c r="F32" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="G32" s="8" t="s">
+        <v>156</v>
+      </c>
+      <c r="H32" s="8" t="s">
+        <v>181</v>
+      </c>
+      <c r="I32" s="8"/>
+      <c r="J32" s="8"/>
+      <c r="K32" s="8"/>
+      <c r="L32" s="8"/>
+    </row>
+    <row r="33" spans="1:12" ht="63.75">
+      <c r="A33" s="5" t="s">
+        <v>209</v>
+      </c>
+      <c r="B33" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="C33" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D33" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="E33" s="8" t="s">
+        <v>83</v>
+      </c>
+      <c r="F33" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="G33" s="8" t="s">
+        <v>157</v>
+      </c>
+      <c r="H33" s="8" t="s">
+        <v>182</v>
+      </c>
+      <c r="I33" s="8"/>
+      <c r="J33" s="8"/>
+      <c r="K33" s="8"/>
+      <c r="L33" s="8"/>
+    </row>
+    <row r="34" spans="1:12" ht="357">
+      <c r="A34" s="5" t="s">
+        <v>210</v>
+      </c>
+      <c r="B34" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="C34" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D34" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="E34" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="F34" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="G34" s="8" t="s">
+        <v>152</v>
+      </c>
+      <c r="H34" s="8" t="s">
+        <v>183</v>
+      </c>
+      <c r="I34" s="8"/>
+      <c r="J34" s="8"/>
+      <c r="K34" s="8"/>
+      <c r="L34" s="8"/>
+    </row>
+    <row r="35" spans="1:12" ht="127.5">
+      <c r="A35" s="5" t="s">
+        <v>211</v>
+      </c>
+      <c r="B35" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C35" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D35" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="E35" s="8" t="s">
+        <v>87</v>
+      </c>
+      <c r="F35" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="G35" s="8" t="s">
+        <v>158</v>
+      </c>
+      <c r="H35" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="I35" s="8"/>
+      <c r="J35" s="8"/>
+      <c r="K35" s="8"/>
+      <c r="L35" s="8"/>
+    </row>
+    <row r="36" spans="1:12" ht="140.25">
+      <c r="A36" s="5" t="s">
+        <v>212</v>
+      </c>
+      <c r="B36" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C36" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D36" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="E36" s="8" t="s">
+        <v>87</v>
+      </c>
+      <c r="F36" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="G36" s="8" t="s">
+        <v>159</v>
+      </c>
+      <c r="H36" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="I36" s="8"/>
+      <c r="J36" s="8"/>
+      <c r="K36" s="8"/>
+      <c r="L36" s="8"/>
+    </row>
+    <row r="37" spans="1:12" ht="204">
+      <c r="A37" s="5" t="s">
+        <v>213</v>
+      </c>
+      <c r="B37" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C37" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D37" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="E37" s="8" t="s">
+        <v>87</v>
+      </c>
+      <c r="F37" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="G37" s="8" t="s">
+        <v>160</v>
+      </c>
+      <c r="H37" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="I37" s="8"/>
+      <c r="J37" s="8"/>
+      <c r="K37" s="8"/>
+      <c r="L37" s="8"/>
+    </row>
+    <row r="38" spans="1:12" ht="127.5">
+      <c r="A38" s="5" t="s">
+        <v>214</v>
+      </c>
+      <c r="B38" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C38" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D38" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="E38" s="8" t="s">
+        <v>87</v>
+      </c>
+      <c r="F38" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="G38" s="8" t="s">
+        <v>161</v>
+      </c>
+      <c r="H38" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="I38" s="8"/>
+      <c r="J38" s="8"/>
+      <c r="K38" s="8"/>
+      <c r="L38" s="8"/>
+    </row>
+    <row r="39" spans="1:12" ht="153">
+      <c r="A39" s="5" t="s">
+        <v>215</v>
+      </c>
+      <c r="B39" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="C39" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D39" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="E39" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="F39" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="G39" s="8" t="s">
+        <v>163</v>
+      </c>
+      <c r="H39" s="8" t="s">
+        <v>184</v>
+      </c>
+      <c r="I39" s="8"/>
+      <c r="J39" s="8"/>
+      <c r="K39" s="8"/>
+      <c r="L39" s="8"/>
+    </row>
+    <row r="40" spans="1:12" ht="216.75">
+      <c r="A40" s="5" t="s">
+        <v>216</v>
+      </c>
+      <c r="B40" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="C40" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D40" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="E40" s="8" t="s">
+        <v>99</v>
+      </c>
+      <c r="F40" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="G40" s="8" t="s">
+        <v>164</v>
+      </c>
+      <c r="H40" s="8" t="s">
+        <v>185</v>
+      </c>
+      <c r="I40" s="8"/>
+      <c r="J40" s="8"/>
+      <c r="K40" s="8"/>
+      <c r="L40" s="8"/>
+    </row>
+    <row r="41" spans="1:12" ht="153">
+      <c r="A41" s="5" t="s">
+        <v>239</v>
+      </c>
+      <c r="B41" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="C41" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D41" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="E41" s="8" t="s">
+        <v>100</v>
+      </c>
+      <c r="F41" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="G41" s="8" t="s">
+        <v>165</v>
+      </c>
+      <c r="H41" s="8" t="s">
+        <v>184</v>
+      </c>
+      <c r="I41" s="8"/>
+      <c r="J41" s="8"/>
+      <c r="K41" s="8"/>
+      <c r="L41" s="8"/>
+    </row>
+    <row r="42" spans="1:12" ht="153">
+      <c r="A42" s="5" t="s">
+        <v>217</v>
+      </c>
+      <c r="B42" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="C42" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D42" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="E42" s="8" t="s">
+        <v>101</v>
+      </c>
+      <c r="F42" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="G42" s="8" t="s">
+        <v>166</v>
+      </c>
+      <c r="H42" s="8" t="s">
+        <v>184</v>
+      </c>
+      <c r="I42" s="8"/>
+      <c r="J42" s="8"/>
+      <c r="K42" s="8"/>
+      <c r="L42" s="8"/>
+    </row>
+    <row r="43" spans="1:12" ht="153">
+      <c r="A43" s="5" t="s">
+        <v>218</v>
+      </c>
+      <c r="B43" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="C43" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D43" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="E43" s="8" t="s">
+        <v>102</v>
+      </c>
+      <c r="F43" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="G43" s="8" t="s">
+        <v>167</v>
+      </c>
+      <c r="H43" s="8" t="s">
+        <v>184</v>
+      </c>
+      <c r="I43" s="8"/>
+      <c r="J43" s="8"/>
+      <c r="K43" s="8"/>
+      <c r="L43" s="8"/>
+    </row>
+    <row r="44" spans="1:12" ht="153">
+      <c r="A44" s="5" t="s">
+        <v>219</v>
+      </c>
+      <c r="B44" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="C44" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D44" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="E44" s="8" t="s">
+        <v>103</v>
+      </c>
+      <c r="F44" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="G44" s="8" t="s">
+        <v>168</v>
+      </c>
+      <c r="H44" s="8" t="s">
+        <v>184</v>
+      </c>
+      <c r="I44" s="8"/>
+      <c r="J44" s="8"/>
+      <c r="K44" s="8"/>
+      <c r="L44" s="8"/>
+    </row>
+    <row r="45" spans="1:12" ht="153">
+      <c r="A45" s="5" t="s">
+        <v>220</v>
+      </c>
+      <c r="B45" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="C45" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D45" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="E45" s="8" t="s">
+        <v>104</v>
+      </c>
+      <c r="F45" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="G45" s="8" t="s">
+        <v>169</v>
+      </c>
+      <c r="H45" s="8" t="s">
+        <v>184</v>
+      </c>
+      <c r="I45" s="8"/>
+      <c r="J45" s="8"/>
+      <c r="K45" s="8"/>
+      <c r="L45" s="8"/>
+    </row>
+    <row r="46" spans="1:12" ht="153">
+      <c r="A46" s="5" t="s">
+        <v>221</v>
+      </c>
+      <c r="B46" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="C46" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D46" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="E46" s="8" t="s">
+        <v>105</v>
+      </c>
+      <c r="F46" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="G46" s="8" t="s">
+        <v>170</v>
+      </c>
+      <c r="H46" s="8" t="s">
+        <v>184</v>
+      </c>
+      <c r="I46" s="8"/>
+      <c r="J46" s="8"/>
+      <c r="K46" s="8"/>
+      <c r="L46" s="8"/>
+    </row>
+    <row r="47" spans="1:12" ht="153">
+      <c r="A47" s="5" t="s">
+        <v>222</v>
+      </c>
+      <c r="B47" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="C47" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D47" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="E47" s="8" t="s">
+        <v>106</v>
+      </c>
+      <c r="F47" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="G47" s="8" t="s">
+        <v>171</v>
+      </c>
+      <c r="H47" s="8" t="s">
+        <v>184</v>
+      </c>
+      <c r="I47" s="8"/>
+      <c r="J47" s="8"/>
+      <c r="K47" s="8"/>
+      <c r="L47" s="8"/>
+    </row>
+    <row r="48" spans="1:12" ht="153">
+      <c r="A48" s="5" t="s">
+        <v>223</v>
+      </c>
+      <c r="B48" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="C48" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D48" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="E48" s="8" t="s">
+        <v>107</v>
+      </c>
+      <c r="F48" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="G48" s="8" t="s">
+        <v>172</v>
+      </c>
+      <c r="H48" s="8" t="s">
+        <v>184</v>
+      </c>
+      <c r="I48" s="8"/>
+      <c r="J48" s="8"/>
+      <c r="K48" s="8"/>
+      <c r="L48" s="8"/>
+    </row>
+    <row r="49" spans="1:12" ht="153">
+      <c r="A49" s="5" t="s">
+        <v>224</v>
+      </c>
+      <c r="B49" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="C49" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D49" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="E49" s="8" t="s">
+        <v>108</v>
+      </c>
+      <c r="F49" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="G49" s="8" t="s">
+        <v>173</v>
+      </c>
+      <c r="H49" s="8" t="s">
+        <v>184</v>
+      </c>
+      <c r="I49" s="8"/>
+      <c r="J49" s="8"/>
+      <c r="K49" s="8"/>
+      <c r="L49" s="8"/>
+    </row>
+    <row r="50" spans="1:12" ht="153">
+      <c r="A50" s="5" t="s">
+        <v>225</v>
+      </c>
+      <c r="B50" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="C50" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D50" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="E50" s="8" t="s">
+        <v>109</v>
+      </c>
+      <c r="F50" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="G50" s="8" t="s">
+        <v>174</v>
+      </c>
+      <c r="H50" s="8" t="s">
+        <v>184</v>
+      </c>
+      <c r="I50" s="8"/>
+      <c r="J50" s="8"/>
+      <c r="K50" s="8"/>
+      <c r="L50" s="8"/>
+    </row>
+    <row r="51" spans="1:12" ht="153">
+      <c r="A51" s="5" t="s">
+        <v>240</v>
+      </c>
+      <c r="B51" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="C51" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D51" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="E51" s="8" t="s">
+        <v>110</v>
+      </c>
+      <c r="F51" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="G51" s="8" t="s">
+        <v>175</v>
+      </c>
+      <c r="H51" s="8" t="s">
+        <v>184</v>
+      </c>
+      <c r="I51" s="8"/>
+      <c r="J51" s="8"/>
+      <c r="K51" s="8"/>
+      <c r="L51" s="8"/>
+    </row>
+    <row r="52" spans="1:12" ht="153">
+      <c r="A52" s="5" t="s">
+        <v>226</v>
+      </c>
+      <c r="B52" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="C52" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D52" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="E52" s="8" t="s">
+        <v>111</v>
+      </c>
+      <c r="F52" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="G52" s="8" t="s">
+        <v>176</v>
+      </c>
+      <c r="H52" s="8" t="s">
+        <v>184</v>
+      </c>
+      <c r="I52" s="8"/>
+      <c r="J52" s="8"/>
+      <c r="K52" s="8"/>
+      <c r="L52" s="8"/>
+    </row>
+    <row r="53" spans="1:12" ht="153">
+      <c r="A53" s="5" t="s">
+        <v>241</v>
+      </c>
+      <c r="B53" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="C53" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D53" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="E53" s="8" t="s">
+        <v>112</v>
+      </c>
+      <c r="F53" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="G53" s="8" t="s">
+        <v>177</v>
+      </c>
+      <c r="H53" s="8" t="s">
+        <v>184</v>
+      </c>
+      <c r="I53" s="8"/>
+      <c r="J53" s="8"/>
+      <c r="K53" s="8"/>
+      <c r="L53" s="8"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="3" scale="57" fitToHeight="0" orientation="landscape" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9C925BF3-AF12-45BC-9703-DFBB16175BA4}">
+  <dimension ref="A1:D14"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A14" sqref="A14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="5.42578125" style="20" customWidth="1"/>
+    <col min="2" max="2" width="20.42578125" style="20" customWidth="1"/>
+    <col min="3" max="3" width="65" customWidth="1"/>
+    <col min="4" max="4" width="13.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" s="19" customFormat="1">
+      <c r="A1" s="19" t="s">
+        <v>267</v>
+      </c>
+      <c r="B1" s="19" t="s">
+        <v>268</v>
+      </c>
+      <c r="C1" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="19" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" s="20">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" s="20">
+        <v>2</v>
+      </c>
+      <c r="C3" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="20">
+        <v>3</v>
+      </c>
+      <c r="C4" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" s="20">
+        <v>4</v>
+      </c>
+      <c r="C5" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" s="20">
+        <v>5</v>
+      </c>
+      <c r="C6" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" s="20">
+        <v>6</v>
+      </c>
+      <c r="C7" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" s="20">
+        <v>7</v>
+      </c>
+      <c r="C8" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" s="20">
+        <v>8</v>
+      </c>
+      <c r="C9" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" s="20">
+        <v>9</v>
+      </c>
+      <c r="C10" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11" s="20">
+        <v>10</v>
+      </c>
+      <c r="C11" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12" s="20">
+        <v>11</v>
+      </c>
+      <c r="C12" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="A13" s="20">
+        <v>12</v>
+      </c>
+      <c r="C13" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="A14" s="20">
+        <v>13</v>
+      </c>
+      <c r="C14" t="s">
+        <v>331</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{6DB7294E-5EF3-4659-83D0-719D8721F4DF}">
+          <x14:formula1>
+            <xm:f>Data!$A$2:$A$8</xm:f>
+          </x14:formula1>
+          <xm:sqref>D2</xm:sqref>
+        </x14:dataValidation>
+      </x14:dataValidations>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2F62AA4A-F943-4697-A2AC-8DC13DB4FD7A}">
+  <dimension ref="A1:H28"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G14" sqref="G14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="16.7109375" customWidth="1"/>
+    <col min="2" max="2" width="32.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="21.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="38.42578125" customWidth="1"/>
+    <col min="8" max="8" width="37" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" s="18" customFormat="1">
+      <c r="A1" s="21" t="s">
+        <v>270</v>
+      </c>
+      <c r="B1" s="21" t="s">
+        <v>280</v>
+      </c>
+      <c r="F1" s="18" t="s">
+        <v>312</v>
+      </c>
+      <c r="G1" s="18" t="s">
+        <v>283</v>
+      </c>
+      <c r="H1" s="18" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
+      <c r="A2" s="22" t="s">
+        <v>271</v>
+      </c>
+      <c r="B2" s="22"/>
+      <c r="F2" t="s">
+        <v>306</v>
+      </c>
+      <c r="G2" s="23" t="s">
+        <v>316</v>
+      </c>
+      <c r="H2" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
+      <c r="A3" s="22" t="s">
+        <v>272</v>
+      </c>
+      <c r="B3" s="22"/>
+      <c r="F3" t="s">
+        <v>306</v>
+      </c>
+      <c r="G3" s="23" t="s">
+        <v>316</v>
+      </c>
+      <c r="H3" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
+      <c r="A4" s="22" t="s">
+        <v>269</v>
+      </c>
+      <c r="B4" s="22"/>
+      <c r="F4" t="s">
+        <v>306</v>
+      </c>
+      <c r="G4" s="23" t="s">
+        <v>316</v>
+      </c>
+      <c r="H4" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
+      <c r="A5" s="22" t="s">
+        <v>273</v>
+      </c>
+      <c r="B5" s="22" t="s">
+        <v>276</v>
+      </c>
+      <c r="F5" t="s">
+        <v>306</v>
+      </c>
+      <c r="G5" t="s">
+        <v>281</v>
+      </c>
+      <c r="H5" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="A6" s="22" t="s">
+        <v>274</v>
+      </c>
+      <c r="B6" s="22" t="s">
+        <v>277</v>
+      </c>
+      <c r="F6" t="s">
+        <v>306</v>
+      </c>
+      <c r="G6" t="s">
+        <v>281</v>
+      </c>
+      <c r="H6" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
+      <c r="A7" s="22" t="s">
+        <v>275</v>
+      </c>
+      <c r="B7" s="22" t="s">
+        <v>278</v>
+      </c>
+      <c r="F7" t="s">
+        <v>306</v>
+      </c>
+      <c r="G7" t="s">
+        <v>281</v>
+      </c>
+      <c r="H7" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
+      <c r="A8" s="22" t="s">
+        <v>279</v>
+      </c>
+      <c r="B8" s="22"/>
+      <c r="F8" t="s">
+        <v>306</v>
+      </c>
+      <c r="G8" t="s">
+        <v>317</v>
+      </c>
+      <c r="H8" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
+      <c r="F9" t="s">
+        <v>306</v>
+      </c>
+      <c r="G9" t="s">
+        <v>317</v>
+      </c>
+      <c r="H9" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
+      <c r="F10" t="s">
+        <v>306</v>
+      </c>
+      <c r="G10" t="s">
+        <v>317</v>
+      </c>
+      <c r="H10" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
+      <c r="F11" t="s">
+        <v>306</v>
+      </c>
+      <c r="G11" t="s">
+        <v>274</v>
+      </c>
+      <c r="H11" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
+      <c r="F12" t="s">
+        <v>306</v>
+      </c>
+      <c r="G12" t="s">
+        <v>274</v>
+      </c>
+      <c r="H12" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
+      <c r="F13" t="s">
+        <v>306</v>
+      </c>
+      <c r="G13" t="s">
+        <v>274</v>
+      </c>
+      <c r="H13" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
+      <c r="F14" t="s">
+        <v>306</v>
+      </c>
+      <c r="G14" t="s">
+        <v>274</v>
+      </c>
+      <c r="H14" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
+      <c r="F15" t="s">
+        <v>306</v>
+      </c>
+      <c r="G15" t="s">
+        <v>318</v>
+      </c>
+      <c r="H15" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
+      <c r="F16" t="s">
+        <v>306</v>
+      </c>
+      <c r="G16" t="s">
+        <v>318</v>
+      </c>
+      <c r="H16" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="17" spans="6:8">
+      <c r="F17" t="s">
+        <v>306</v>
+      </c>
+      <c r="G17" t="s">
+        <v>318</v>
+      </c>
+      <c r="H17" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="18" spans="6:8">
+      <c r="F18" t="s">
+        <v>306</v>
+      </c>
+      <c r="G18" t="s">
+        <v>318</v>
+      </c>
+      <c r="H18" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="19" spans="6:8">
+      <c r="F19" t="s">
+        <v>306</v>
+      </c>
+      <c r="G19" t="s">
+        <v>282</v>
+      </c>
+      <c r="H19" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="20" spans="6:8">
+      <c r="F20" t="s">
+        <v>306</v>
+      </c>
+      <c r="G20" t="s">
+        <v>282</v>
+      </c>
+      <c r="H20" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="21" spans="6:8">
+      <c r="F21" t="s">
+        <v>306</v>
+      </c>
+      <c r="G21" t="s">
+        <v>282</v>
+      </c>
+      <c r="H21" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="22" spans="6:8">
+      <c r="F22" t="s">
+        <v>306</v>
+      </c>
+      <c r="G22" t="s">
+        <v>282</v>
+      </c>
+      <c r="H22" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="23" spans="6:8">
+      <c r="F23" t="s">
+        <v>307</v>
+      </c>
+      <c r="G23" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="24" spans="6:8">
+      <c r="F24" t="s">
+        <v>307</v>
+      </c>
+      <c r="G24" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="25" spans="6:8">
+      <c r="F25" t="s">
+        <v>307</v>
+      </c>
+      <c r="G25" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="26" spans="6:8">
+      <c r="F26" t="s">
+        <v>311</v>
+      </c>
+      <c r="G26" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="27" spans="6:8">
+      <c r="F27" t="s">
+        <v>311</v>
+      </c>
+      <c r="G27" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="28" spans="6:8">
+      <c r="F28" t="s">
+        <v>311</v>
+      </c>
+      <c r="G28" t="s">
+        <v>315</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9B636B85-500D-41D2-87C6-9E20A6D0EA06}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:L53"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="92" zoomScaleNormal="92" workbookViewId="0">
+    <sheetView zoomScale="92" zoomScaleNormal="92" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="I9" sqref="I9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="1" width="6.33203125" style="9" customWidth="1"/>
-    <col min="2" max="2" width="6.77734375" style="9" customWidth="1"/>
-    <col min="3" max="3" width="8.88671875" style="9"/>
-    <col min="4" max="4" width="17.77734375" style="10" customWidth="1"/>
-    <col min="5" max="5" width="20.88671875" style="10" customWidth="1"/>
-    <col min="6" max="6" width="12.33203125" style="9" customWidth="1"/>
-    <col min="7" max="7" width="16.44140625" style="9" customWidth="1"/>
-    <col min="8" max="8" width="38.33203125" style="9" customWidth="1"/>
-    <col min="9" max="9" width="54.33203125" style="9" customWidth="1"/>
-    <col min="10" max="10" width="56.88671875" style="9" customWidth="1"/>
-    <col min="11" max="16384" width="8.88671875" style="9"/>
+    <col min="1" max="1" width="6.28515625" style="9" customWidth="1"/>
+    <col min="2" max="2" width="6.7109375" style="9" customWidth="1"/>
+    <col min="3" max="3" width="8.85546875" style="9"/>
+    <col min="4" max="4" width="17.7109375" style="10" customWidth="1"/>
+    <col min="5" max="5" width="20.85546875" style="10" customWidth="1"/>
+    <col min="6" max="6" width="12.28515625" style="9" customWidth="1"/>
+    <col min="7" max="7" width="16.42578125" style="9" customWidth="1"/>
+    <col min="8" max="8" width="38.28515625" style="9" customWidth="1"/>
+    <col min="9" max="9" width="54.28515625" style="9" customWidth="1"/>
+    <col min="10" max="10" width="56.85546875" style="9" customWidth="1"/>
+    <col min="11" max="16384" width="8.85546875" style="9"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="4" customFormat="1" ht="26.4">
+    <row r="1" spans="1:12" s="4" customFormat="1" ht="25.5">
       <c r="A1" s="1" t="s">
         <v>244</v>
       </c>
@@ -1546,7 +3937,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:12" ht="145.19999999999999">
+    <row r="2" spans="1:12" ht="153">
       <c r="A2" s="5" t="s">
         <v>227</v>
       </c>
@@ -1580,7 +3971,7 @@
       <c r="K2" s="8"/>
       <c r="L2" s="8"/>
     </row>
-    <row r="3" spans="1:12" ht="132">
+    <row r="3" spans="1:12" ht="127.5">
       <c r="A3" s="5" t="s">
         <v>228</v>
       </c>
@@ -1614,7 +4005,7 @@
       <c r="K3" s="8"/>
       <c r="L3" s="8"/>
     </row>
-    <row r="4" spans="1:12" ht="132">
+    <row r="4" spans="1:12" ht="140.25">
       <c r="A4" s="5" t="s">
         <v>229</v>
       </c>
@@ -1648,7 +4039,7 @@
       <c r="K4" s="8"/>
       <c r="L4" s="8"/>
     </row>
-    <row r="5" spans="1:12" ht="79.2">
+    <row r="5" spans="1:12" ht="76.5">
       <c r="A5" s="5" t="s">
         <v>230</v>
       </c>
@@ -1682,7 +4073,7 @@
       <c r="K5" s="8"/>
       <c r="L5" s="8"/>
     </row>
-    <row r="6" spans="1:12" ht="26.4">
+    <row r="6" spans="1:12" ht="25.5">
       <c r="A6" s="5" t="s">
         <v>231</v>
       </c>
@@ -1712,7 +4103,7 @@
       <c r="K6" s="8"/>
       <c r="L6" s="8"/>
     </row>
-    <row r="7" spans="1:12" ht="52.8">
+    <row r="7" spans="1:12" ht="51">
       <c r="A7" s="5" t="s">
         <v>232</v>
       </c>
@@ -1742,7 +4133,7 @@
       <c r="K7" s="8"/>
       <c r="L7" s="8"/>
     </row>
-    <row r="8" spans="1:12" ht="52.8">
+    <row r="8" spans="1:12" ht="51">
       <c r="A8" s="5" t="s">
         <v>233</v>
       </c>
@@ -1772,7 +4163,7 @@
       <c r="K8" s="8"/>
       <c r="L8" s="8"/>
     </row>
-    <row r="9" spans="1:12" ht="158.4">
+    <row r="9" spans="1:12" ht="153">
       <c r="A9" s="5" t="s">
         <v>234</v>
       </c>
@@ -1804,7 +4195,7 @@
       <c r="K9" s="8"/>
       <c r="L9" s="8"/>
     </row>
-    <row r="10" spans="1:12" ht="52.8">
+    <row r="10" spans="1:12" ht="51">
       <c r="A10" s="5" t="s">
         <v>235</v>
       </c>
@@ -1834,7 +4225,7 @@
       <c r="K10" s="8"/>
       <c r="L10" s="8"/>
     </row>
-    <row r="11" spans="1:12" ht="92.4">
+    <row r="11" spans="1:12" ht="89.25">
       <c r="A11" s="5" t="s">
         <v>236</v>
       </c>
@@ -1864,7 +4255,7 @@
       <c r="K11" s="8"/>
       <c r="L11" s="8"/>
     </row>
-    <row r="12" spans="1:12" ht="79.2">
+    <row r="12" spans="1:12" ht="76.5">
       <c r="A12" s="5" t="s">
         <v>190</v>
       </c>
@@ -1894,7 +4285,7 @@
       <c r="K12" s="8"/>
       <c r="L12" s="8"/>
     </row>
-    <row r="13" spans="1:12" ht="132">
+    <row r="13" spans="1:12" ht="127.5">
       <c r="A13" s="5" t="s">
         <v>191</v>
       </c>
@@ -1924,7 +4315,7 @@
       <c r="K13" s="8"/>
       <c r="L13" s="8"/>
     </row>
-    <row r="14" spans="1:12" ht="52.8">
+    <row r="14" spans="1:12" ht="51">
       <c r="A14" s="5" t="s">
         <v>192</v>
       </c>
@@ -1954,7 +4345,7 @@
       <c r="K14" s="8"/>
       <c r="L14" s="8"/>
     </row>
-    <row r="15" spans="1:12" ht="26.4">
+    <row r="15" spans="1:12" ht="25.5">
       <c r="A15" s="5" t="s">
         <v>193</v>
       </c>
@@ -1984,7 +4375,7 @@
       <c r="K15" s="8"/>
       <c r="L15" s="8"/>
     </row>
-    <row r="16" spans="1:12" ht="66">
+    <row r="16" spans="1:12" ht="63.75">
       <c r="A16" s="5" t="s">
         <v>194</v>
       </c>
@@ -2014,7 +4405,7 @@
       <c r="K16" s="8"/>
       <c r="L16" s="8"/>
     </row>
-    <row r="17" spans="1:12" ht="52.8">
+    <row r="17" spans="1:12" ht="51">
       <c r="A17" s="5" t="s">
         <v>195</v>
       </c>
@@ -2070,7 +4461,7 @@
       <c r="K18" s="8"/>
       <c r="L18" s="8"/>
     </row>
-    <row r="19" spans="1:12">
+    <row r="19" spans="1:12" ht="25.5">
       <c r="A19" s="5" t="s">
         <v>197</v>
       </c>
@@ -2096,7 +4487,7 @@
       <c r="K19" s="8"/>
       <c r="L19" s="8"/>
     </row>
-    <row r="20" spans="1:12" ht="184.8">
+    <row r="20" spans="1:12" ht="178.5">
       <c r="A20" s="5" t="s">
         <v>198</v>
       </c>
@@ -2126,7 +4517,7 @@
       <c r="K20" s="8"/>
       <c r="L20" s="8"/>
     </row>
-    <row r="21" spans="1:12" ht="39.6">
+    <row r="21" spans="1:12" ht="38.25">
       <c r="A21" s="5" t="s">
         <v>237</v>
       </c>
@@ -2156,7 +4547,7 @@
       <c r="K21" s="8"/>
       <c r="L21" s="8"/>
     </row>
-    <row r="22" spans="1:12" ht="66">
+    <row r="22" spans="1:12" ht="63.75">
       <c r="A22" s="5" t="s">
         <v>199</v>
       </c>
@@ -2186,7 +4577,7 @@
       <c r="K22" s="8"/>
       <c r="L22" s="8"/>
     </row>
-    <row r="23" spans="1:12" ht="52.8">
+    <row r="23" spans="1:12" ht="51">
       <c r="A23" s="5" t="s">
         <v>200</v>
       </c>
@@ -2216,7 +4607,7 @@
       <c r="K23" s="8"/>
       <c r="L23" s="8"/>
     </row>
-    <row r="24" spans="1:12" ht="66">
+    <row r="24" spans="1:12" ht="63.75">
       <c r="A24" s="5" t="s">
         <v>201</v>
       </c>
@@ -2246,7 +4637,7 @@
       <c r="K24" s="8"/>
       <c r="L24" s="8"/>
     </row>
-    <row r="25" spans="1:12" ht="105.6">
+    <row r="25" spans="1:12" ht="102">
       <c r="A25" s="5" t="s">
         <v>202</v>
       </c>
@@ -2276,7 +4667,7 @@
       <c r="K25" s="8"/>
       <c r="L25" s="8"/>
     </row>
-    <row r="26" spans="1:12" ht="118.8">
+    <row r="26" spans="1:12" ht="127.5">
       <c r="A26" s="5" t="s">
         <v>203</v>
       </c>
@@ -2306,7 +4697,7 @@
       <c r="K26" s="8"/>
       <c r="L26" s="8"/>
     </row>
-    <row r="27" spans="1:12" ht="211.2">
+    <row r="27" spans="1:12" ht="216.75">
       <c r="A27" s="5" t="s">
         <v>204</v>
       </c>
@@ -2336,7 +4727,7 @@
       <c r="K27" s="8"/>
       <c r="L27" s="8"/>
     </row>
-    <row r="28" spans="1:12" ht="66">
+    <row r="28" spans="1:12" ht="63.75">
       <c r="A28" s="5" t="s">
         <v>205</v>
       </c>
@@ -2366,7 +4757,7 @@
       <c r="K28" s="8"/>
       <c r="L28" s="8"/>
     </row>
-    <row r="29" spans="1:12" ht="66">
+    <row r="29" spans="1:12" ht="63.75">
       <c r="A29" s="5" t="s">
         <v>206</v>
       </c>
@@ -2394,7 +4785,7 @@
       <c r="K29" s="8"/>
       <c r="L29" s="8"/>
     </row>
-    <row r="30" spans="1:12" ht="79.2">
+    <row r="30" spans="1:12" ht="76.5">
       <c r="A30" s="5" t="s">
         <v>207</v>
       </c>
@@ -2422,7 +4813,7 @@
       <c r="K30" s="8"/>
       <c r="L30" s="8"/>
     </row>
-    <row r="31" spans="1:12" ht="66">
+    <row r="31" spans="1:12" ht="63.75">
       <c r="A31" s="5" t="s">
         <v>238</v>
       </c>
@@ -2450,7 +4841,7 @@
       <c r="K31" s="8"/>
       <c r="L31" s="8"/>
     </row>
-    <row r="32" spans="1:12" ht="66">
+    <row r="32" spans="1:12" ht="63.75">
       <c r="A32" s="5" t="s">
         <v>208</v>
       </c>
@@ -2480,7 +4871,7 @@
       <c r="K32" s="8"/>
       <c r="L32" s="8"/>
     </row>
-    <row r="33" spans="1:12" ht="66">
+    <row r="33" spans="1:12" ht="63.75">
       <c r="A33" s="5" t="s">
         <v>209</v>
       </c>
@@ -2510,7 +4901,7 @@
       <c r="K33" s="8"/>
       <c r="L33" s="8"/>
     </row>
-    <row r="34" spans="1:12" ht="356.4">
+    <row r="34" spans="1:12" ht="357">
       <c r="A34" s="5" t="s">
         <v>210</v>
       </c>
@@ -2540,7 +4931,7 @@
       <c r="K34" s="8"/>
       <c r="L34" s="8"/>
     </row>
-    <row r="35" spans="1:12" ht="118.8">
+    <row r="35" spans="1:12" ht="127.5">
       <c r="A35" s="5" t="s">
         <v>211</v>
       </c>
@@ -2570,7 +4961,7 @@
       <c r="K35" s="8"/>
       <c r="L35" s="8"/>
     </row>
-    <row r="36" spans="1:12" ht="145.19999999999999">
+    <row r="36" spans="1:12" ht="140.25">
       <c r="A36" s="5" t="s">
         <v>212</v>
       </c>
@@ -2600,7 +4991,7 @@
       <c r="K36" s="8"/>
       <c r="L36" s="8"/>
     </row>
-    <row r="37" spans="1:12" ht="211.2">
+    <row r="37" spans="1:12" ht="204">
       <c r="A37" s="5" t="s">
         <v>213</v>
       </c>
@@ -2630,7 +5021,7 @@
       <c r="K37" s="8"/>
       <c r="L37" s="8"/>
     </row>
-    <row r="38" spans="1:12" ht="118.8">
+    <row r="38" spans="1:12" ht="127.5">
       <c r="A38" s="5" t="s">
         <v>214</v>
       </c>
@@ -2660,7 +5051,7 @@
       <c r="K38" s="8"/>
       <c r="L38" s="8"/>
     </row>
-    <row r="39" spans="1:12" ht="145.19999999999999">
+    <row r="39" spans="1:12" ht="153">
       <c r="A39" s="5" t="s">
         <v>215</v>
       </c>
@@ -2690,7 +5081,7 @@
       <c r="K39" s="8"/>
       <c r="L39" s="8"/>
     </row>
-    <row r="40" spans="1:12" ht="211.2">
+    <row r="40" spans="1:12" ht="216.75">
       <c r="A40" s="5" t="s">
         <v>216</v>
       </c>
@@ -2720,7 +5111,7 @@
       <c r="K40" s="8"/>
       <c r="L40" s="8"/>
     </row>
-    <row r="41" spans="1:12" ht="145.19999999999999">
+    <row r="41" spans="1:12" ht="153">
       <c r="A41" s="5" t="s">
         <v>239</v>
       </c>
@@ -2750,7 +5141,7 @@
       <c r="K41" s="8"/>
       <c r="L41" s="8"/>
     </row>
-    <row r="42" spans="1:12" ht="145.19999999999999">
+    <row r="42" spans="1:12" ht="153">
       <c r="A42" s="5" t="s">
         <v>217</v>
       </c>
@@ -2780,7 +5171,7 @@
       <c r="K42" s="8"/>
       <c r="L42" s="8"/>
     </row>
-    <row r="43" spans="1:12" ht="145.19999999999999">
+    <row r="43" spans="1:12" ht="153">
       <c r="A43" s="5" t="s">
         <v>218</v>
       </c>
@@ -2810,7 +5201,7 @@
       <c r="K43" s="8"/>
       <c r="L43" s="8"/>
     </row>
-    <row r="44" spans="1:12" ht="145.19999999999999">
+    <row r="44" spans="1:12" ht="153">
       <c r="A44" s="5" t="s">
         <v>219</v>
       </c>
@@ -2840,7 +5231,7 @@
       <c r="K44" s="8"/>
       <c r="L44" s="8"/>
     </row>
-    <row r="45" spans="1:12" ht="145.19999999999999">
+    <row r="45" spans="1:12" ht="153">
       <c r="A45" s="5" t="s">
         <v>220</v>
       </c>
@@ -2870,7 +5261,7 @@
       <c r="K45" s="8"/>
       <c r="L45" s="8"/>
     </row>
-    <row r="46" spans="1:12" ht="145.19999999999999">
+    <row r="46" spans="1:12" ht="153">
       <c r="A46" s="5" t="s">
         <v>221</v>
       </c>
@@ -2900,7 +5291,7 @@
       <c r="K46" s="8"/>
       <c r="L46" s="8"/>
     </row>
-    <row r="47" spans="1:12" ht="145.19999999999999">
+    <row r="47" spans="1:12" ht="153">
       <c r="A47" s="5" t="s">
         <v>222</v>
       </c>
@@ -2930,7 +5321,7 @@
       <c r="K47" s="8"/>
       <c r="L47" s="8"/>
     </row>
-    <row r="48" spans="1:12" ht="145.19999999999999">
+    <row r="48" spans="1:12" ht="153">
       <c r="A48" s="5" t="s">
         <v>223</v>
       </c>
@@ -2960,7 +5351,7 @@
       <c r="K48" s="8"/>
       <c r="L48" s="8"/>
     </row>
-    <row r="49" spans="1:12" ht="145.19999999999999">
+    <row r="49" spans="1:12" ht="153">
       <c r="A49" s="5" t="s">
         <v>224</v>
       </c>
@@ -2990,7 +5381,7 @@
       <c r="K49" s="8"/>
       <c r="L49" s="8"/>
     </row>
-    <row r="50" spans="1:12" ht="145.19999999999999">
+    <row r="50" spans="1:12" ht="153">
       <c r="A50" s="5" t="s">
         <v>225</v>
       </c>
@@ -3020,7 +5411,7 @@
       <c r="K50" s="8"/>
       <c r="L50" s="8"/>
     </row>
-    <row r="51" spans="1:12" ht="145.19999999999999">
+    <row r="51" spans="1:12" ht="153">
       <c r="A51" s="5" t="s">
         <v>240</v>
       </c>
@@ -3050,7 +5441,7 @@
       <c r="K51" s="8"/>
       <c r="L51" s="8"/>
     </row>
-    <row r="52" spans="1:12" ht="145.19999999999999">
+    <row r="52" spans="1:12" ht="153">
       <c r="A52" s="5" t="s">
         <v>226</v>
       </c>
@@ -3080,7 +5471,7 @@
       <c r="K52" s="8"/>
       <c r="L52" s="8"/>
     </row>
-    <row r="53" spans="1:12" ht="145.19999999999999">
+    <row r="53" spans="1:12" ht="153">
       <c r="A53" s="5" t="s">
         <v>241</v>
       </c>

--- a/.docs/backlog.xlsx
+++ b/.docs/backlog.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Apps\doweb2\.docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{959F193D-1691-4404-B92A-FC6A1E7809F5}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{619BFC0E-95BF-4BEB-BA3D-611FDF3814F0}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9060" activeTab="1" xr2:uid="{CF0B0C50-87FC-49A8-9022-24752B9AFE18}"/>
   </bookViews>
@@ -100,7 +100,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="967" uniqueCount="332">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="969" uniqueCount="334">
   <si>
     <t>Feature</t>
   </si>
@@ -1170,9 +1170,6 @@
     <t>Company asks, must haves, preferences for preemptive application including interview questionnaire &amp; interview stats</t>
   </si>
   <si>
-    <t>Opt for pre-verified pool of participants</t>
-  </si>
-  <si>
     <t>Third party screening</t>
   </si>
   <si>
@@ -1189,6 +1186,15 @@
   </si>
   <si>
     <t>Trend is your friend - until the end when it bends</t>
+  </si>
+  <si>
+    <t>priority</t>
+  </si>
+  <si>
+    <t>Opt for pre-verified pool of participants - Candidate bank</t>
+  </si>
+  <si>
+    <t>github contribution graph</t>
   </si>
 </sst>
 </file>
@@ -3370,10 +3376,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9C925BF3-AF12-45BC-9703-DFBB16175BA4}">
-  <dimension ref="A1:D14"/>
+  <dimension ref="A1:E15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A14" sqref="A14"/>
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -3382,9 +3388,10 @@
     <col min="2" max="2" width="20.42578125" style="20" customWidth="1"/>
     <col min="3" max="3" width="65" customWidth="1"/>
     <col min="4" max="4" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.140625" style="20"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="19" customFormat="1">
+    <row r="1" spans="1:5" s="19" customFormat="1">
       <c r="A1" s="19" t="s">
         <v>267</v>
       </c>
@@ -3397,112 +3404,165 @@
       <c r="D1" s="19" t="s">
         <v>270</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="E1" s="19" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
       <c r="A2" s="20">
         <v>1</v>
       </c>
       <c r="C2" t="s">
         <v>319</v>
       </c>
-    </row>
-    <row r="3" spans="1:4">
+      <c r="E2" s="20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
       <c r="A3" s="20">
         <v>2</v>
       </c>
       <c r="C3" t="s">
         <v>323</v>
       </c>
-    </row>
-    <row r="4" spans="1:4">
+      <c r="E3" s="20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
       <c r="A4" s="20">
         <v>3</v>
       </c>
       <c r="C4" t="s">
         <v>320</v>
       </c>
-    </row>
-    <row r="5" spans="1:4">
+      <c r="E4" s="20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
       <c r="A5" s="20">
         <v>4</v>
       </c>
       <c r="C5" t="s">
         <v>324</v>
       </c>
-    </row>
-    <row r="6" spans="1:4">
+      <c r="E5" s="20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
       <c r="A6" s="20">
         <v>5</v>
       </c>
       <c r="C6" t="s">
         <v>322</v>
       </c>
-    </row>
-    <row r="7" spans="1:4">
+      <c r="E6" s="20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
       <c r="A7" s="20">
         <v>6</v>
       </c>
       <c r="C7" t="s">
         <v>321</v>
       </c>
-    </row>
-    <row r="8" spans="1:4">
+      <c r="E7" s="20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
       <c r="A8" s="20">
         <v>7</v>
       </c>
       <c r="C8" t="s">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
+        <v>332</v>
+      </c>
+      <c r="E8" s="20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
       <c r="A9" s="20">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C9" t="s">
         <v>326</v>
       </c>
-    </row>
-    <row r="10" spans="1:4">
+      <c r="E9" s="20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
       <c r="A10" s="20">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="C10" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
-      <c r="A11" s="20">
-        <v>10</v>
-      </c>
+        <v>328</v>
+      </c>
+      <c r="E10" s="20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
       <c r="C11" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
+        <v>333</v>
+      </c>
+      <c r="E11" s="20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
       <c r="A12" s="20">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C12" t="s">
         <v>330</v>
       </c>
-    </row>
-    <row r="13" spans="1:4">
+      <c r="E12" s="20">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
       <c r="A13" s="20">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="C13" t="s">
+        <v>325</v>
+      </c>
+      <c r="E13" s="20">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="A14" s="20">
+        <v>10</v>
+      </c>
+      <c r="C14" t="s">
+        <v>327</v>
+      </c>
+      <c r="E14" s="20">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="A15" s="20">
+        <v>11</v>
+      </c>
+      <c r="C15" t="s">
         <v>329</v>
       </c>
-    </row>
-    <row r="14" spans="1:4">
-      <c r="A14" s="20">
-        <v>13</v>
-      </c>
-      <c r="C14" t="s">
-        <v>331</v>
+      <c r="E15" s="20">
+        <v>3</v>
       </c>
     </row>
   </sheetData>
+  <sortState ref="A2:E15">
+    <sortCondition ref="E13"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
   <extLst>

--- a/.docs/backlog.xlsx
+++ b/.docs/backlog.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Apps\doweb2\.docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{619BFC0E-95BF-4BEB-BA3D-611FDF3814F0}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{B96559E9-E9E7-4CE4-8962-3BF6A2BCAF82}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9060" activeTab="1" xr2:uid="{CF0B0C50-87FC-49A8-9022-24752B9AFE18}"/>
   </bookViews>
@@ -100,7 +100,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="969" uniqueCount="334">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="970" uniqueCount="335">
   <si>
     <t>Feature</t>
   </si>
@@ -1195,6 +1195,9 @@
   </si>
   <si>
     <t>github contribution graph</t>
+  </si>
+  <si>
+    <t>Patients -&gt; Visits -&gt; CRFs</t>
   </si>
 </sst>
 </file>
@@ -3376,10 +3379,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9C925BF3-AF12-45BC-9703-DFBB16175BA4}">
-  <dimension ref="A1:E15"/>
+  <dimension ref="A1:E18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -3557,6 +3560,11 @@
       </c>
       <c r="E15" s="20">
         <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:3">
+      <c r="C18" t="s">
+        <v>334</v>
       </c>
     </row>
   </sheetData>
